--- a/外部設計関連/外部設計書_ユーザー登録.xlsx
+++ b/外部設計関連/外部設計書_ユーザー登録.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CFBE5E-6ECE-4418-A869-10D47FD67A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111C67CC-1A67-405C-B625-1695921EDCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -248,6 +248,184 @@
     <rPh sb="6" eb="8">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴマーク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pagetitle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>p_footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ID入力欄</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード入力欄</t>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会社名</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー種別</t>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>id_input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>password_input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>name_input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>物理名被りはNG？（違うページ間）</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリメイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>company_input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_category</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>regist_button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:radio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー種別の最大・最小値</t>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サイショウチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m_users</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>company</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -885,6 +1063,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>9.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
             <a:t>フッター</a:t>
           </a:r>
@@ -950,69 +1132,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
             <a:t>ヘッダー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>154782</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71876BC4-4449-40FB-A15B-58327DD27545}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="976313" y="1952624"/>
-          <a:ext cx="9417844" cy="273845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>ナビゲーション</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1868,15 +1987,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN108"/>
+  <dimension ref="A1:AP107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W51" sqref="W51"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -4559,7 +4678,7 @@
       <c r="AM64" s="7"/>
       <c r="AN64" s="7"/>
     </row>
-    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="10"/>
@@ -4601,7 +4720,7 @@
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
     </row>
-    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="10"/>
@@ -4643,7 +4762,7 @@
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
     </row>
-    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="10"/>
@@ -4685,7 +4804,7 @@
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
     </row>
-    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="10"/>
@@ -4727,7 +4846,7 @@
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
     </row>
-    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="10"/>
@@ -4769,7 +4888,7 @@
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
     </row>
-    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="10"/>
@@ -4811,7 +4930,7 @@
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
     </row>
-    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="9"/>
@@ -4853,7 +4972,7 @@
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
     </row>
-    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="11"/>
       <c r="C72" s="12"/>
@@ -4895,7 +5014,7 @@
       <c r="AM72" s="13"/>
       <c r="AN72" s="7"/>
     </row>
-    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -4937,7 +5056,7 @@
       <c r="AM73" s="12"/>
       <c r="AN73" s="13"/>
     </row>
-    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -4979,7 +5098,7 @@
       <c r="AM74" s="4"/>
       <c r="AN74" s="5"/>
     </row>
-    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="3" t="s">
         <v>10</v>
@@ -5023,7 +5142,7 @@
       <c r="AM75" s="5"/>
       <c r="AN75" s="7"/>
     </row>
-    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="8"/>
@@ -5065,7 +5184,7 @@
       <c r="AM76" s="7"/>
       <c r="AN76" s="7"/>
     </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="14" t="s">
         <v>11</v>
@@ -5127,19 +5246,27 @@
       <c r="AM77" s="20"/>
       <c r="AN77" s="7"/>
     </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="16"/>
+      <c r="C78" s="15">
+        <v>1</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="15"/>
-      <c r="H78" s="16"/>
+      <c r="H78" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="I78" s="18"/>
       <c r="J78" s="17"/>
       <c r="K78" s="19"/>
-      <c r="L78" s="16"/>
+      <c r="L78" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="M78" s="17"/>
       <c r="N78" s="19"/>
       <c r="O78" s="16"/>
@@ -5169,22 +5296,32 @@
       <c r="AM78" s="20"/>
       <c r="AN78" s="7"/>
     </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="15">
+        <v>2</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
@@ -5210,35 +5347,56 @@
       <c r="AL79" s="17"/>
       <c r="AM79" s="20"/>
       <c r="AN79" s="7"/>
-    </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP79" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="15">
+        <v>3</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
-      <c r="S80" s="16"/>
+      <c r="S80" s="16">
+        <v>1</v>
+      </c>
       <c r="T80" s="19"/>
-      <c r="U80" s="16"/>
+      <c r="U80" s="16">
+        <v>30</v>
+      </c>
       <c r="V80" s="19"/>
-      <c r="W80" s="16"/>
+      <c r="W80" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
-      <c r="AA80" s="16"/>
+      <c r="AA80" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="16"/>
@@ -5252,35 +5410,56 @@
       <c r="AL80" s="17"/>
       <c r="AM80" s="20"/>
       <c r="AN80" s="7"/>
-    </row>
-    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP80" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="15">
+        <v>4</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
-      <c r="S81" s="16"/>
+      <c r="S81" s="16">
+        <v>1</v>
+      </c>
       <c r="T81" s="19"/>
-      <c r="U81" s="16"/>
+      <c r="U81" s="16">
+        <v>30</v>
+      </c>
       <c r="V81" s="19"/>
-      <c r="W81" s="16"/>
+      <c r="W81" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
-      <c r="AA81" s="16"/>
+      <c r="AA81" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="16"/>
@@ -5294,35 +5473,56 @@
       <c r="AL81" s="17"/>
       <c r="AM81" s="20"/>
       <c r="AN81" s="7"/>
-    </row>
-    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP81" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>5</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
-      <c r="S82" s="16"/>
+      <c r="S82" s="16">
+        <v>1</v>
+      </c>
       <c r="T82" s="19"/>
-      <c r="U82" s="16"/>
+      <c r="U82" s="16">
+        <v>30</v>
+      </c>
       <c r="V82" s="19"/>
-      <c r="W82" s="16"/>
+      <c r="W82" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
-      <c r="AA82" s="16"/>
+      <c r="AA82" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
       <c r="AD82" s="16"/>
@@ -5337,34 +5537,52 @@
       <c r="AM82" s="20"/>
       <c r="AN82" s="7"/>
     </row>
-    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>6</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>
-      <c r="S83" s="16"/>
+      <c r="S83" s="16">
+        <v>1</v>
+      </c>
       <c r="T83" s="19"/>
-      <c r="U83" s="16"/>
+      <c r="U83" s="16">
+        <v>50</v>
+      </c>
       <c r="V83" s="19"/>
-      <c r="W83" s="16"/>
+      <c r="W83" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
-      <c r="AA83" s="16"/>
+      <c r="AA83" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
       <c r="AD83" s="16"/>
@@ -5379,34 +5597,50 @@
       <c r="AM83" s="20"/>
       <c r="AN83" s="7"/>
     </row>
-    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="15">
+        <v>7</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16"/>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
-      <c r="S84" s="16"/>
+      <c r="S84" s="16">
+        <v>1</v>
+      </c>
       <c r="T84" s="19"/>
-      <c r="U84" s="16"/>
+      <c r="U84" s="16">
+        <v>10</v>
+      </c>
       <c r="V84" s="19"/>
-      <c r="W84" s="16"/>
+      <c r="W84" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
-      <c r="AA84" s="16"/>
+      <c r="AA84" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
       <c r="AD84" s="16"/>
@@ -5421,23 +5655,24 @@
       <c r="AM84" s="20"/>
       <c r="AN84" s="7"/>
     </row>
-    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
+      <c r="C85" s="15">
+        <v>8</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="17"/>
+      <c r="H85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K85" s="15"/>
+      <c r="L85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N85" s="15"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
       <c r="S85" s="16"/>
@@ -5463,22 +5698,32 @@
       <c r="AM85" s="20"/>
       <c r="AN85" s="7"/>
     </row>
-    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
+      <c r="C86" s="15">
+        <v>9</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="16"/>
+      <c r="H86" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
-      <c r="L86" s="16"/>
+      <c r="L86" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
-      <c r="O86" s="16"/>
+      <c r="O86" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="19"/>
@@ -5505,7 +5750,7 @@
       <c r="AM86" s="20"/>
       <c r="AN86" s="7"/>
     </row>
-    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
@@ -5547,7 +5792,7 @@
       <c r="AM87" s="20"/>
       <c r="AN87" s="7"/>
     </row>
-    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15"/>
@@ -5589,7 +5834,7 @@
       <c r="AM88" s="20"/>
       <c r="AN88" s="7"/>
     </row>
-    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -5631,7 +5876,7 @@
       <c r="AM89" s="20"/>
       <c r="AN89" s="7"/>
     </row>
-    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
@@ -5673,7 +5918,7 @@
       <c r="AM90" s="20"/>
       <c r="AN90" s="7"/>
     </row>
-    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
@@ -5715,7 +5960,7 @@
       <c r="AM91" s="20"/>
       <c r="AN91" s="7"/>
     </row>
-    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
@@ -5757,7 +6002,7 @@
       <c r="AM92" s="20"/>
       <c r="AN92" s="7"/>
     </row>
-    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
@@ -5799,7 +6044,7 @@
       <c r="AM93" s="20"/>
       <c r="AN93" s="7"/>
     </row>
-    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
@@ -5841,7 +6086,7 @@
       <c r="AM94" s="20"/>
       <c r="AN94" s="7"/>
     </row>
-    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
@@ -5883,7 +6128,7 @@
       <c r="AM95" s="20"/>
       <c r="AN95" s="7"/>
     </row>
-    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
@@ -6346,88 +6591,46 @@
       <c r="AN106" s="7"/>
     </row>
     <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="6"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="16"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="19"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
-      <c r="R107" s="19"/>
-      <c r="S107" s="16"/>
-      <c r="T107" s="19"/>
-      <c r="U107" s="16"/>
-      <c r="V107" s="19"/>
-      <c r="W107" s="16"/>
-      <c r="X107" s="17"/>
-      <c r="Y107" s="17"/>
-      <c r="Z107" s="19"/>
-      <c r="AA107" s="16"/>
-      <c r="AB107" s="17"/>
-      <c r="AC107" s="19"/>
-      <c r="AD107" s="16"/>
-      <c r="AE107" s="17"/>
-      <c r="AF107" s="17"/>
-      <c r="AG107" s="17"/>
-      <c r="AH107" s="17"/>
-      <c r="AI107" s="17"/>
-      <c r="AJ107" s="17"/>
-      <c r="AK107" s="17"/>
-      <c r="AL107" s="17"/>
-      <c r="AM107" s="20"/>
-      <c r="AN107" s="7"/>
-    </row>
-    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="11"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
-      <c r="T108" s="12"/>
-      <c r="U108" s="12"/>
-      <c r="V108" s="12"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="12"/>
-      <c r="Y108" s="12"/>
-      <c r="Z108" s="12"/>
-      <c r="AA108" s="12"/>
-      <c r="AB108" s="12"/>
-      <c r="AC108" s="12"/>
-      <c r="AD108" s="12"/>
-      <c r="AE108" s="12"/>
-      <c r="AF108" s="12"/>
-      <c r="AG108" s="12"/>
-      <c r="AH108" s="12"/>
-      <c r="AI108" s="12"/>
-      <c r="AJ108" s="12"/>
-      <c r="AK108" s="12"/>
-      <c r="AL108" s="12"/>
-      <c r="AM108" s="12"/>
-      <c r="AN108" s="13"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12"/>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="12"/>
+      <c r="AC107" s="12"/>
+      <c r="AD107" s="12"/>
+      <c r="AE107" s="12"/>
+      <c r="AF107" s="12"/>
+      <c r="AG107" s="12"/>
+      <c r="AH107" s="12"/>
+      <c r="AI107" s="12"/>
+      <c r="AJ107" s="12"/>
+      <c r="AK107" s="12"/>
+      <c r="AL107" s="12"/>
+      <c r="AM107" s="12"/>
+      <c r="AN107" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/外部設計関連/外部設計書_ユーザー登録.xlsx
+++ b/外部設計関連/外部設計書_ユーザー登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111C67CC-1A67-405C-B625-1695921EDCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE147CA-2518-4F59-9415-83F246FCCAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -348,26 +348,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>memo</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>物理名被りはNG？（違うページ間）</t>
-    <rPh sb="0" eb="3">
-      <t>ブツリメイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カブ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>company_input</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -393,19 +373,6 @@
   </si>
   <si>
     <t>input:submit</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー種別の最大・最小値</t>
-    <rPh sb="4" eb="6">
-      <t>シュベツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>サイショウチ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1987,7 +1954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP107"/>
+  <dimension ref="A1:AN107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:J3"/>
@@ -4678,7 +4645,7 @@
       <c r="AM64" s="7"/>
       <c r="AN64" s="7"/>
     </row>
-    <row r="65" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="10"/>
@@ -4720,7 +4687,7 @@
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
     </row>
-    <row r="66" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="10"/>
@@ -4762,7 +4729,7 @@
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
     </row>
-    <row r="67" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="10"/>
@@ -4804,7 +4771,7 @@
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
     </row>
-    <row r="68" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="10"/>
@@ -4846,7 +4813,7 @@
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
     </row>
-    <row r="69" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="10"/>
@@ -4888,7 +4855,7 @@
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
     </row>
-    <row r="70" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="10"/>
@@ -4930,7 +4897,7 @@
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
     </row>
-    <row r="71" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="9"/>
@@ -4972,7 +4939,7 @@
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
     </row>
-    <row r="72" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="11"/>
       <c r="C72" s="12"/>
@@ -5014,7 +4981,7 @@
       <c r="AM72" s="13"/>
       <c r="AN72" s="7"/>
     </row>
-    <row r="73" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -5056,7 +5023,7 @@
       <c r="AM73" s="12"/>
       <c r="AN73" s="13"/>
     </row>
-    <row r="74" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -5098,7 +5065,7 @@
       <c r="AM74" s="4"/>
       <c r="AN74" s="5"/>
     </row>
-    <row r="75" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="3" t="s">
         <v>10</v>
@@ -5142,7 +5109,7 @@
       <c r="AM75" s="5"/>
       <c r="AN75" s="7"/>
     </row>
-    <row r="76" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="8"/>
@@ -5184,7 +5151,7 @@
       <c r="AM76" s="7"/>
       <c r="AN76" s="7"/>
     </row>
-    <row r="77" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="14" t="s">
         <v>11</v>
@@ -5246,7 +5213,7 @@
       <c r="AM77" s="20"/>
       <c r="AN77" s="7"/>
     </row>
-    <row r="78" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15">
@@ -5296,7 +5263,7 @@
       <c r="AM78" s="20"/>
       <c r="AN78" s="7"/>
     </row>
-    <row r="79" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15">
@@ -5347,11 +5314,8 @@
       <c r="AL79" s="17"/>
       <c r="AM79" s="20"/>
       <c r="AN79" s="7"/>
-      <c r="AP79" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15">
@@ -5370,7 +5334,7 @@
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -5389,13 +5353,13 @@
       </c>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -5410,11 +5374,8 @@
       <c r="AL80" s="17"/>
       <c r="AM80" s="20"/>
       <c r="AN80" s="7"/>
-      <c r="AP80" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15">
@@ -5433,7 +5394,7 @@
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -5452,13 +5413,13 @@
       </c>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -5473,11 +5434,8 @@
       <c r="AL81" s="17"/>
       <c r="AM81" s="20"/>
       <c r="AN81" s="7"/>
-      <c r="AP81" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15">
@@ -5496,7 +5454,7 @@
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
@@ -5515,13 +5473,13 @@
       </c>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -5537,14 +5495,14 @@
       <c r="AM82" s="20"/>
       <c r="AN82" s="7"/>
     </row>
-    <row r="83" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15">
         <v>6</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
@@ -5556,7 +5514,7 @@
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
@@ -5575,13 +5533,13 @@
       </c>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
@@ -5597,14 +5555,14 @@
       <c r="AM83" s="20"/>
       <c r="AN83" s="7"/>
     </row>
-    <row r="84" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15">
         <v>7</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
@@ -5616,7 +5574,7 @@
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
@@ -5633,13 +5591,13 @@
       </c>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -5655,14 +5613,14 @@
       <c r="AM84" s="20"/>
       <c r="AN84" s="7"/>
     </row>
-    <row r="85" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
       <c r="C85" s="15">
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="1" t="s">
@@ -5670,7 +5628,7 @@
       </c>
       <c r="K85" s="15"/>
       <c r="L85" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N85" s="15"/>
       <c r="Q85" s="17"/>
@@ -5698,7 +5656,7 @@
       <c r="AM85" s="20"/>
       <c r="AN85" s="7"/>
     </row>
-    <row r="86" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15">
@@ -5750,7 +5708,7 @@
       <c r="AM86" s="20"/>
       <c r="AN86" s="7"/>
     </row>
-    <row r="87" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
@@ -5792,7 +5750,7 @@
       <c r="AM87" s="20"/>
       <c r="AN87" s="7"/>
     </row>
-    <row r="88" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15"/>
@@ -5834,7 +5792,7 @@
       <c r="AM88" s="20"/>
       <c r="AN88" s="7"/>
     </row>
-    <row r="89" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -5876,7 +5834,7 @@
       <c r="AM89" s="20"/>
       <c r="AN89" s="7"/>
     </row>
-    <row r="90" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
@@ -5918,7 +5876,7 @@
       <c r="AM90" s="20"/>
       <c r="AN90" s="7"/>
     </row>
-    <row r="91" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
@@ -5960,7 +5918,7 @@
       <c r="AM91" s="20"/>
       <c r="AN91" s="7"/>
     </row>
-    <row r="92" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
@@ -6002,7 +5960,7 @@
       <c r="AM92" s="20"/>
       <c r="AN92" s="7"/>
     </row>
-    <row r="93" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
@@ -6044,7 +6002,7 @@
       <c r="AM93" s="20"/>
       <c r="AN93" s="7"/>
     </row>
-    <row r="94" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
@@ -6086,7 +6044,7 @@
       <c r="AM94" s="20"/>
       <c r="AN94" s="7"/>
     </row>
-    <row r="95" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
@@ -6128,7 +6086,7 @@
       <c r="AM95" s="20"/>
       <c r="AN95" s="7"/>
     </row>
-    <row r="96" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>

--- a/外部設計関連/外部設計書_ユーザー登録.xlsx
+++ b/外部設計関連/外部設計書_ユーザー登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE147CA-2518-4F59-9415-83F246FCCAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62A979-D833-4E73-82E6-7B3B13A7AC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1113,8 +1113,8 @@
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
@@ -1131,8 +1131,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4429125" y="1559718"/>
-          <a:ext cx="2286000" cy="559594"/>
+          <a:off x="4111625" y="1593585"/>
+          <a:ext cx="2255308" cy="572294"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1237,7 +1237,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>２．新規登録</a:t>
+            <a:t>２．ページタイトル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1956,7 +1956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -5286,9 +5286,7 @@
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="O79" s="16"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
@@ -5679,9 +5677,7 @@
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
-      <c r="O86" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="O86" s="16"/>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="19"/>

--- a/外部設計関連/外部設計書_ユーザー登録.xlsx
+++ b/外部設計関連/外部設計書_ユーザー登録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62A979-D833-4E73-82E6-7B3B13A7AC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D3A08-7129-4F11-AF69-ADD0451673D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -393,6 +393,30 @@
   </si>
   <si>
     <t>company</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー登録ページ</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>藤原夢乃</t>
+    <rPh sb="0" eb="2">
+      <t>フジワラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユメノ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -768,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -897,6 +921,9 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -925,8 +952,8 @@
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>277811</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
@@ -943,8 +970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="940594" y="1464469"/>
-          <a:ext cx="9465468" cy="5131593"/>
+          <a:off x="952501" y="1464469"/>
+          <a:ext cx="9604373" cy="5131593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1255,7 +1282,7 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>201083</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>55563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1270,8 +1297,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4655344" y="2643187"/>
-          <a:ext cx="2117989" cy="404812"/>
+          <a:off x="4722813" y="2643187"/>
+          <a:ext cx="2145770" cy="269876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,16 +1344,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>250032</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3969</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>177271</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>209021</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1341,8 +1368,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4631532" y="3262312"/>
-          <a:ext cx="2117989" cy="404812"/>
+          <a:off x="4726782" y="3063874"/>
+          <a:ext cx="2149739" cy="277813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1380,16 +1407,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>165365</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:colOff>212990</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1404,8 +1431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4619626" y="3893344"/>
-          <a:ext cx="2117989" cy="404812"/>
+          <a:off x="4730751" y="3536156"/>
+          <a:ext cx="2149739" cy="265906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1443,16 +1470,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>214314</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>141553</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
+      <xdr:colOff>212990</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1467,8 +1494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4595814" y="4464843"/>
-          <a:ext cx="2117989" cy="404812"/>
+          <a:off x="4730751" y="4004468"/>
+          <a:ext cx="2149739" cy="218282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,69 +1525,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>６．会社名</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>141552</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0518CE8-637E-4DA7-A4E2-ABDD83586A3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4595813" y="5048250"/>
-          <a:ext cx="2117989" cy="404812"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>７．ユーザー種別</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1624,6 +1588,460 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>８．登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>230188</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>150814</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7939</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF01575-898B-4E1C-B9F9-3C5C136A0A06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4953001" y="4325939"/>
+          <a:ext cx="1309688" cy="254000"/>
+          <a:chOff x="4746626" y="4294188"/>
+          <a:chExt cx="1309688" cy="254000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0518CE8-637E-4DA7-A4E2-ABDD83586A3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5095876" y="4294188"/>
+            <a:ext cx="960438" cy="254000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>受講者</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="楕円 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BB1E49-617A-42F6-B25C-6568C80F71FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4746626" y="4365626"/>
+            <a:ext cx="166687" cy="126999"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>158752</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF76F9F5-4852-4B26-871B-ACAAFA28E1D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4960939" y="4706938"/>
+          <a:ext cx="1309688" cy="254000"/>
+          <a:chOff x="4746626" y="4294188"/>
+          <a:chExt cx="1309688" cy="254000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAD0906-839B-4207-A1FF-EDD345B49AD0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5095876" y="4294188"/>
+            <a:ext cx="960438" cy="254000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>講師</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="楕円 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C242FE-23B3-4BD5-828F-014E25B34E61}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4746626" y="4365626"/>
+            <a:ext cx="166687" cy="126999"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>174626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="グループ化 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE59BA7-EB51-4DDA-AE62-E736C8312364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4976813" y="5127626"/>
+          <a:ext cx="1309688" cy="254000"/>
+          <a:chOff x="4746626" y="4294188"/>
+          <a:chExt cx="1309688" cy="254000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF91B03C-DE8C-41D4-972C-E9DCEF2CE26E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5095876" y="4294188"/>
+            <a:ext cx="960438" cy="254000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>運営事務局</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="楕円 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBEB85F-FF80-4780-BCA6-39089CE96475}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4746626" y="4365626"/>
+            <a:ext cx="166687" cy="126999"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97F149F-6EC3-461F-836E-715C82706AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4421187" y="4278313"/>
+          <a:ext cx="2635251" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>７．</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1956,13 +2374,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -1983,7 +2401,9 @@
       </c>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
+      <c r="N1" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
@@ -1996,7 +2416,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
+      <c r="Y1" s="31" t="s">
+        <v>60</v>
+      </c>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
@@ -2031,7 +2453,9 @@
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="N2" s="41" t="s">
+        <v>59</v>
+      </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
@@ -2044,7 +2468,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
+      <c r="Y2" s="46">
+        <v>44356</v>
+      </c>
       <c r="Z2" s="41"/>
       <c r="AA2" s="41"/>
       <c r="AB2" s="41"/>

--- a/外部設計関連/外部設計書_ユーザー登録.xlsx
+++ b/外部設計関連/外部設計書_ユーザー登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D3A08-7129-4F11-AF69-ADD0451673D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA19021A-D746-455D-B04D-EB2FC06EAA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2374,7 +2374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2:AE2"/>
     </sheetView>
   </sheetViews>

--- a/外部設計関連/外部設計書_ユーザー登録.xlsx
+++ b/外部設計関連/外部設計書_ユーザー登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA19021A-D746-455D-B04D-EB2FC06EAA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1467D9-4E09-474C-B8C8-EB984727B0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,9 +210,6 @@
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>IDが被ってしまった場合は、IDを変える旨をアラートで表示し、登録画面に遷移する</t>
   </si>
   <si>
     <t>入力漏れがあった場合、required属性によるアラートが表示される</t>
@@ -417,6 +414,10 @@
     <rPh sb="2" eb="4">
       <t>ユメノ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IDが被ってしまった場合は、IDを変える旨をアラートで表示し、登録画面に遷移する</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -909,6 +910,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,9 +923,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2374,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AE2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2402,7 +2403,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
@@ -2417,7 +2418,7 @@
       </c>
       <c r="X1" s="31"/>
       <c r="Y1" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
@@ -2425,10 +2426,10 @@
       <c r="AC1" s="31"/>
       <c r="AD1" s="31"/>
       <c r="AE1" s="31"/>
-      <c r="AF1" s="45" t="s">
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="45"/>
+      <c r="AG1" s="46"/>
       <c r="AH1" s="38"/>
       <c r="AI1" s="38"/>
       <c r="AJ1" s="38"/>
@@ -2454,7 +2455,7 @@
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
@@ -2468,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="46">
+      <c r="Y2" s="42">
         <v>44356</v>
       </c>
       <c r="Z2" s="41"/>
@@ -2477,17 +2478,17 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="41"/>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="44"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
@@ -4231,7 +4232,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="G45" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -4274,7 +4275,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -4318,7 +4319,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -4363,7 +4364,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -5646,19 +5647,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="15"/>
       <c r="H78" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="17"/>
       <c r="K78" s="19"/>
       <c r="L78" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M78" s="17"/>
       <c r="N78" s="19"/>
@@ -5696,19 +5697,19 @@
         <v>2</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -5746,24 +5747,24 @@
         <v>3</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -5777,13 +5778,13 @@
       </c>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -5806,24 +5807,24 @@
         <v>4</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -5837,13 +5838,13 @@
       </c>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -5866,24 +5867,24 @@
         <v>5</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -5897,13 +5898,13 @@
       </c>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -5926,24 +5927,24 @@
         <v>6</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -5957,13 +5958,13 @@
       </c>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
@@ -5986,19 +5987,19 @@
         <v>7</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
@@ -6015,13 +6016,13 @@
       </c>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -6044,15 +6045,15 @@
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85" s="15"/>
       <c r="L85" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N85" s="15"/>
       <c r="Q85" s="17"/>
@@ -6087,19 +6088,19 @@
         <v>9</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>

--- a/外部設計関連/外部設計書_ユーザー登録.xlsx
+++ b/外部設計関連/外部設計書_ユーザー登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1467D9-4E09-474C-B8C8-EB984727B0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2EF8DA-9886-490B-9CC9-8F358BD9E63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -418,6 +418,19 @@
   </si>
   <si>
     <t>IDが被ってしまった場合は、IDを変える旨をアラートで表示し、登録画面に遷移する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴマークは画像が移っている状態（クリックしてもなにもならない）</t>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1621,8 +1634,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4953001" y="4325939"/>
-          <a:ext cx="1309688" cy="254000"/>
+          <a:off x="4908021" y="4325939"/>
+          <a:ext cx="1296460" cy="254000"/>
           <a:chOff x="4746626" y="4294188"/>
           <a:chExt cx="1309688" cy="254000"/>
         </a:xfrm>
@@ -1749,8 +1762,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4960939" y="4706938"/>
-          <a:ext cx="1309688" cy="254000"/>
+          <a:off x="4915959" y="4706938"/>
+          <a:ext cx="1296460" cy="254000"/>
           <a:chOff x="4746626" y="4294188"/>
           <a:chExt cx="1309688" cy="254000"/>
         </a:xfrm>
@@ -1877,8 +1890,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4976813" y="5127626"/>
-          <a:ext cx="1309688" cy="254000"/>
+          <a:off x="4931833" y="5127626"/>
+          <a:ext cx="1296460" cy="254000"/>
           <a:chOff x="4746626" y="4294188"/>
           <a:chExt cx="1309688" cy="254000"/>
         </a:xfrm>
@@ -2375,7 +2388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -4448,7 +4461,9 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
+      <c r="F50" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>

--- a/外部設計関連/外部設計書_ユーザー登録.xlsx
+++ b/外部設計関連/外部設計書_ユーザー登録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2EF8DA-9886-490B-9CC9-8F358BD9E63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742EA5ED-958A-4BEC-8091-CB59682A8FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -235,19 +235,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>登録完了した場合、トップページに遷移する旨をアラートで表示する</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>logo</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -421,15 +408,15 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ロゴマークは画像が移っている状態（クリックしてもなにもならない）</t>
+    <t>登録完了した場合、トップページに遷移する.</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
     <rPh sb="6" eb="8">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ウツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウタイ</t>
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1634,8 +1621,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4908021" y="4325939"/>
-          <a:ext cx="1296460" cy="254000"/>
+          <a:off x="4548188" y="4419072"/>
+          <a:ext cx="1190626" cy="262467"/>
           <a:chOff x="4746626" y="4294188"/>
           <a:chExt cx="1309688" cy="254000"/>
         </a:xfrm>
@@ -1762,8 +1749,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4915959" y="4706938"/>
-          <a:ext cx="1296460" cy="254000"/>
+          <a:off x="4556126" y="4808538"/>
+          <a:ext cx="1190626" cy="262467"/>
           <a:chOff x="4746626" y="4294188"/>
           <a:chExt cx="1309688" cy="254000"/>
         </a:xfrm>
@@ -1890,8 +1877,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4931833" y="5127626"/>
-          <a:ext cx="1296460" cy="254000"/>
+          <a:off x="4572000" y="5237693"/>
+          <a:ext cx="1190626" cy="262466"/>
           <a:chOff x="4746626" y="4294188"/>
           <a:chExt cx="1309688" cy="254000"/>
         </a:xfrm>
@@ -2388,13 +2375,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -2416,7 +2403,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
@@ -2431,7 +2418,7 @@
       </c>
       <c r="X1" s="31"/>
       <c r="Y1" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
@@ -2468,7 +2455,7 @@
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
@@ -4332,7 +4319,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -4377,7 +4364,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -4461,9 +4448,7 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -5662,19 +5647,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="15"/>
       <c r="H78" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="17"/>
       <c r="K78" s="19"/>
       <c r="L78" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M78" s="17"/>
       <c r="N78" s="19"/>
@@ -5712,19 +5697,19 @@
         <v>2</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -5762,24 +5747,24 @@
         <v>3</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -5793,13 +5778,13 @@
       </c>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -5822,24 +5807,24 @@
         <v>4</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -5853,13 +5838,13 @@
       </c>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -5882,24 +5867,24 @@
         <v>5</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -5913,13 +5898,13 @@
       </c>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -5942,24 +5927,24 @@
         <v>6</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -5973,13 +5958,13 @@
       </c>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
@@ -6002,19 +5987,19 @@
         <v>7</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
@@ -6031,13 +6016,13 @@
       </c>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -6060,15 +6045,15 @@
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K85" s="15"/>
       <c r="L85" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N85" s="15"/>
       <c r="Q85" s="17"/>
@@ -6103,19 +6088,19 @@
         <v>9</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
